--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori5/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori5/17/word_level_predictions_17.xlsx
@@ -3414,208 +3414,208 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Calibrate</t>
         </is>
       </c>
-      <c r="D58" s="2" t="n">
+      <c r="D58" t="n">
         <v>36</v>
       </c>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F58" s="2" t="inlineStr">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G58" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L58" s="2" t="inlineStr">
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="D59" t="n">
         <v>37</v>
       </c>
-      <c r="E59" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Before</t>
         </is>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" t="n">
         <v>38</v>
       </c>
-      <c r="E60" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2" t="inlineStr">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n">
+      <c r="D61" t="n">
         <v>39</v>
       </c>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2" t="inlineStr">
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G77" s="2" t="b">
@@ -4437,11 +4437,11 @@
         </is>
       </c>
       <c r="I77" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K77" s="2" t="b">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4489,11 +4489,11 @@
         </is>
       </c>
       <c r="I78" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K78" s="2" t="b">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G79" s="2" t="b">
@@ -4541,11 +4541,11 @@
         </is>
       </c>
       <c r="I79" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K79" s="2" t="b">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4593,11 +4593,11 @@
         </is>
       </c>
       <c r="I80" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K80" s="2" t="b">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G81" s="2" t="b">
@@ -4645,11 +4645,11 @@
         </is>
       </c>
       <c r="I81" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K81" s="2" t="b">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5881,185 +5881,185 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E106" s="2" t="inlineStr">
+        <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" t="inlineStr">
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I105" t="b">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr">
+      <c r="I106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L106" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>takeoff</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G107" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K105" t="b">
-        <v>1</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
+      <c r="I107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B108" s="2" t="inlineStr">
         <is>
           <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>9</v>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G106" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" t="inlineStr">
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>restricted</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I106" t="b">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K106" t="b">
-        <v>1</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>3</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>takeoff</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
-        <v>10</v>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G107" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I107" t="b">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K107" t="b">
-        <v>1</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>3</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>restricted</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>11</v>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G108" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I108" t="b">
-        <v>1</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K108" t="b">
-        <v>1</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="I108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L108" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10330,156 +10330,156 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="n">
+      <c r="A191" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B191" t="inlineStr">
+      <c r="B191" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference . Please fly with caution . Obstacle Avoidance Disabled . Landing gear lowered . Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
+      <c r="C191" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D191" t="n">
+      <c r="D191" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="E191" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
+      <c r="F191" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G191" t="b">
-        <v>1</v>
-      </c>
-      <c r="H191" t="inlineStr">
+      <c r="G191" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H191" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I191" t="b">
-        <v>1</v>
-      </c>
-      <c r="J191" t="inlineStr">
+      <c r="I191" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J191" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K191" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L191" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>Strong wireless interference . Please fly with caution . Obstacle Avoidance Disabled . Landing gear lowered . Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E192" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F192" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G192" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H192" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K191" t="b">
-        <v>1</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
+      <c r="I192" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J192" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K192" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L192" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B192" t="inlineStr">
+      <c r="B193" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference . Please fly with caution . Obstacle Avoidance Disabled . Landing gear lowered . Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D192" t="n">
-        <v>10</v>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G192" t="b">
-        <v>1</v>
-      </c>
-      <c r="H192" t="inlineStr">
+      <c r="C193" s="2" t="inlineStr">
+        <is>
+          <t>Disabled</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E193" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F193" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G193" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H193" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I192" t="b">
-        <v>1</v>
-      </c>
-      <c r="J192" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K192" t="b">
-        <v>1</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>6</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Strong wireless interference . Please fly with caution . Obstacle Avoidance Disabled . Landing gear lowered . Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Disabled</t>
-        </is>
-      </c>
-      <c r="D193" t="n">
-        <v>11</v>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G193" t="b">
-        <v>1</v>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I193" t="b">
-        <v>1</v>
-      </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K193" t="b">
-        <v>1</v>
-      </c>
-      <c r="L193" t="inlineStr">
+      <c r="I193" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J193" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K193" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L193" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori5/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori5/17/word_level_predictions_17.xlsx
@@ -3414,208 +3414,208 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" t="inlineStr">
+      <c r="A58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>Calibrate</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K58" t="b">
-        <v>1</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="G58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>1</v>
-      </c>
-      <c r="B59" t="inlineStr">
+      <c r="A59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K59" t="b">
-        <v>1</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" t="inlineStr">
+      <c r="A60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>Before</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K60" t="b">
-        <v>1</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>1</v>
-      </c>
-      <c r="B61" t="inlineStr">
+      <c r="A61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="G61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G77" s="2" t="b">
@@ -4437,11 +4437,11 @@
         </is>
       </c>
       <c r="I77" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K77" s="2" t="b">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -4489,11 +4489,11 @@
         </is>
       </c>
       <c r="I78" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K78" s="2" t="b">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G79" s="2" t="b">
@@ -4541,11 +4541,11 @@
         </is>
       </c>
       <c r="I79" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K79" s="2" t="b">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4593,11 +4593,11 @@
         </is>
       </c>
       <c r="I80" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K80" s="2" t="b">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G81" s="2" t="b">
@@ -4645,11 +4645,11 @@
         </is>
       </c>
       <c r="I81" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K81" s="2" t="b">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5881,185 +5881,185 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>3</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>9</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>3</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>takeoff</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>10</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I107" t="b">
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K107" t="b">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>3</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>restricted</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>11</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" t="inlineStr">
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I105" t="b">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr">
+      <c r="I108" t="b">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K105" t="b">
-        <v>1</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B106" s="2" t="inlineStr">
-        <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C106" s="2" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E106" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F106" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G106" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L106" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B107" s="2" t="inlineStr">
-        <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C107" s="2" t="inlineStr">
-        <is>
-          <t>takeoff</t>
-        </is>
-      </c>
-      <c r="D107" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E107" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F107" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G107" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L107" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B108" s="2" t="inlineStr">
-        <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C108" s="2" t="inlineStr">
-        <is>
-          <t>restricted</t>
-        </is>
-      </c>
-      <c r="D108" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E108" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F108" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G108" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L108" s="2" t="inlineStr">
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10330,156 +10330,156 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="2" t="n">
+      <c r="A191" t="n">
         <v>6</v>
       </c>
-      <c r="B191" s="2" t="inlineStr">
+      <c r="B191" t="inlineStr">
         <is>
           <t>Strong wireless interference . Please fly with caution . Obstacle Avoidance Disabled . Landing gear lowered . Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C191" s="2" t="inlineStr">
+      <c r="C191" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D191" s="2" t="n">
+      <c r="D191" t="n">
         <v>9</v>
       </c>
-      <c r="E191" s="2" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F191" s="2" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G191" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H191" s="2" t="inlineStr">
+      <c r="G191" t="b">
+        <v>1</v>
+      </c>
+      <c r="H191" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I191" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J191" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K191" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L191" s="2" t="inlineStr">
+      <c r="I191" t="b">
+        <v>1</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K191" t="b">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="2" t="n">
+      <c r="A192" t="n">
         <v>6</v>
       </c>
-      <c r="B192" s="2" t="inlineStr">
+      <c r="B192" t="inlineStr">
         <is>
           <t>Strong wireless interference . Please fly with caution . Obstacle Avoidance Disabled . Landing gear lowered . Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C192" s="2" t="inlineStr">
+      <c r="C192" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D192" s="2" t="n">
+      <c r="D192" t="n">
         <v>10</v>
       </c>
-      <c r="E192" s="2" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F192" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G192" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H192" s="2" t="inlineStr">
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G192" t="b">
+        <v>1</v>
+      </c>
+      <c r="H192" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I192" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J192" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K192" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L192" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I192" t="b">
+        <v>1</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K192" t="b">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="n">
+      <c r="A193" t="n">
         <v>6</v>
       </c>
-      <c r="B193" s="2" t="inlineStr">
+      <c r="B193" t="inlineStr">
         <is>
           <t>Strong wireless interference . Please fly with caution . Obstacle Avoidance Disabled . Landing gear lowered . Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C193" s="2" t="inlineStr">
+      <c r="C193" t="inlineStr">
         <is>
           <t>Disabled</t>
         </is>
       </c>
-      <c r="D193" s="2" t="n">
+      <c r="D193" t="n">
         <v>11</v>
       </c>
-      <c r="E193" s="2" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F193" s="2" t="inlineStr">
+      <c r="F193" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G193" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H193" s="2" t="inlineStr">
+      <c r="G193" t="b">
+        <v>1</v>
+      </c>
+      <c r="H193" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I193" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J193" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K193" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L193" s="2" t="inlineStr">
+      <c r="I193" t="b">
+        <v>1</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K193" t="b">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
